--- a/src/normas/data/tab_conama_357.xlsx
+++ b/src/normas/data/tab_conama_357.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\open_mpsp\norma_res_conama_357-05\src\normas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C497A35-E30E-4523-8B21-575D08A90FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFB9FDA-8B32-4E4C-B9A1-4EA748768938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conama_357" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="283">
   <si>
     <t>Parâmetros Inorgânicos</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>(vazio)</t>
+  </si>
+  <si>
+    <t>parametro_classe</t>
+  </si>
+  <si>
+    <t>parametro_descricao</t>
   </si>
 </sst>
 </file>
@@ -948,16 +954,16 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5838,7 +5844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33E5EA42-5749-46C6-BB33-62B16ED09E1F}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33E5EA42-5749-46C6-BB33-62B16ED09E1F}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E319" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="12">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6986,24 +6992,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BA177EA-F934-4326-87F9-BCBD9D535AAA}" name="Tabela1" displayName="Tabela1" ref="A1:L334" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BA177EA-F934-4326-87F9-BCBD9D535AAA}" name="Tabela1" displayName="Tabela1" ref="A1:L334" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L334" xr:uid="{4BA177EA-F934-4326-87F9-BCBD9D535AAA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L334">
     <sortCondition ref="A1:A334"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F2261795-67F7-4D9F-B927-6E70C5FEE40F}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5BF7FDE8-1CDD-40A4-8BD5-2F08B9476138}" name="tipo_padrao" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{8F2946E9-86A7-4BEC-8EB8-40CE1956C1DC}" name="padrao_qualidade" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9AEBDF8F-A3DB-46FF-90AE-1A6473C2824D}" name="parametros_classe" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C1E9436E-9AA3-4666-8C84-D6601FD42747}" name="parametros_descricao" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8F7F29DC-07E5-4225-A1EE-C50933A22ECF}" name="parametro_sigla" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{9510FA12-67F4-4FE5-AF78-3BDE3B6EDD63}" name="valor_minimo_permitido" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{AE822B62-C4F5-4342-B3DE-8E00AD5A3829}" name="valor_maximo_permitido" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{89245A0C-CBC4-4481-8FD0-5694EF4AEBA3}" name="unidade" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{FAE937AF-2AA9-4757-873C-D8FB076E626F}" name="condicao" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{068AD7D6-90E3-409E-AD05-88BAF8FC17C3}" name="norma_referencia" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{EB9E84C9-BAB7-4F85-85DD-3E775A734AA1}" name="norma_texto" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F2261795-67F7-4D9F-B927-6E70C5FEE40F}" name="id" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5BF7FDE8-1CDD-40A4-8BD5-2F08B9476138}" name="tipo_padrao" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8F2946E9-86A7-4BEC-8EB8-40CE1956C1DC}" name="padrao_qualidade" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9AEBDF8F-A3DB-46FF-90AE-1A6473C2824D}" name="parametro_classe" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1E9436E-9AA3-4666-8C84-D6601FD42747}" name="parametro_descricao" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{8F7F29DC-07E5-4225-A1EE-C50933A22ECF}" name="parametro_sigla" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{9510FA12-67F4-4FE5-AF78-3BDE3B6EDD63}" name="valor_minimo_permitido" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AE822B62-C4F5-4342-B3DE-8E00AD5A3829}" name="valor_maximo_permitido" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{89245A0C-CBC4-4481-8FD0-5694EF4AEBA3}" name="unidade" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{FAE937AF-2AA9-4757-873C-D8FB076E626F}" name="condicao" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{068AD7D6-90E3-409E-AD05-88BAF8FC17C3}" name="norma_referencia" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{EB9E84C9-BAB7-4F85-85DD-3E775A734AA1}" name="norma_texto" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7276,7 +7282,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7306,10 +7312,10 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>70</v>
